--- a/applications.xlsx
+++ b/applications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONICA\Desktop\ResearchProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONICA\Documents\GitHub\projectpaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -171,8 +173,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,8 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +496,7 @@
   <dimension ref="F2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,22 +511,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -746,4 +757,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="28.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>